--- a/restassured/src/test/java/datafiles/TestData.xlsx
+++ b/restassured/src/test/java/datafiles/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0045309\Twitter Test Github\restassured\src\test\java\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756BF88E-978B-4173-A313-FC749658C5B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34400E6F-F9C2-4083-A9FE-D8E3A3745336}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>TestCase1</t>
   </si>
@@ -196,13 +196,7 @@
     <t>bill</t>
   </si>
   <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>gay</t>
-  </si>
-  <si>
-    <t>child</t>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -862,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216B1198-4FBF-4B20-BC57-89C16349FB7E}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +897,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -918,7 +912,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -933,7 +927,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/restassured/src/test/java/datafiles/TestData.xlsx
+++ b/restassured/src/test/java/datafiles/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0045309\Twitter Test Github\restassured\src\test\java\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34400E6F-F9C2-4083-A9FE-D8E3A3745336}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A833B694-31C4-4B95-8F48-F00E65AF3ED2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
     <t>TestCase1</t>
   </si>
@@ -197,6 +197,30 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Method Five</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>234</t>
   </si>
 </sst>
 </file>
@@ -268,12 +292,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -854,21 +880,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216B1198-4FBF-4B20-BC57-89C16349FB7E}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -885,7 +911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>46</v>
@@ -900,7 +926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>46</v>
@@ -915,7 +941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>46</v>
@@ -930,7 +956,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>54</v>
@@ -945,7 +971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -953,6 +979,140 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="6">
+        <v>123</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="6">
+        <v>124</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="6">
+        <v>345</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -960,7 +1120,12 @@
     <hyperlink ref="D4" r:id="rId2" xr:uid="{A9DF67E4-3D77-4EE4-8168-4469CD8C1734}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{F202582E-CEB5-435A-9FE9-AB92F1C32DB5}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{DA0FA0A4-4879-441E-B532-013ABD2DB8EE}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{51F4BE98-1692-4271-A448-9FF5AD1FD804}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{7AA3391B-6866-4827-8310-FB1E32687566}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{2142C59E-6506-4BA1-8B62-E47267B9F313}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{CA43F41B-16D9-499F-969B-FD283EAD3084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/restassured/src/test/java/datafiles/TestData.xlsx
+++ b/restassured/src/test/java/datafiles/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0045309\Twitter Test Github\restassured\src\test\java\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A833B694-31C4-4B95-8F48-F00E65AF3ED2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF9D31F-DF68-4F27-A9CF-E7427E7766E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="WorkSafeBC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>TestCase1</t>
   </si>
@@ -221,13 +222,82 @@
   </si>
   <si>
     <t>234</t>
+  </si>
+  <si>
+    <t>Report a workplace injury</t>
+  </si>
+  <si>
+    <t>View claim information</t>
+  </si>
+  <si>
+    <t>Search the OHS Regulation</t>
+  </si>
+  <si>
+    <t>Report payroll &amp; pay premiums</t>
+  </si>
+  <si>
+    <t>Get a clearance letter</t>
+  </si>
+  <si>
+    <t>Report a workplace injury or disease</t>
+  </si>
+  <si>
+    <t>Searchable OHS Regulation &amp; related materials</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>Popular_Links</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Info_ByTopic</t>
+  </si>
+  <si>
+    <t>Health &amp; Safety</t>
+  </si>
+  <si>
+    <t>Claims</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Forms &amp; Resources</t>
+  </si>
+  <si>
+    <t>Law &amp; Policy</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>health-safety</t>
+  </si>
+  <si>
+    <t>claims</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>law-policy</t>
+  </si>
+  <si>
+    <t>about-us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +313,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF47423C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -300,6 +383,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -882,15 +969,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216B1198-4FBF-4B20-BC57-89C16349FB7E}">
   <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1128,4 +1215,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1370D8B1-9994-47CD-B71A-7ED14F48E0C0}">
+  <dimension ref="A2:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>